--- a/Network/protocol.xlsx
+++ b/Network/protocol.xlsx
@@ -4,19 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="IP首部" sheetId="1" r:id="rId1"/>
+    <sheet name="UDP首部" sheetId="2" r:id="rId2"/>
+    <sheet name="TCP首部" sheetId="3" r:id="rId3"/>
+    <sheet name="ICMP报文首部" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+  <si>
+    <t>IP首部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位首部长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>4位版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,7 +36,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8位服务类型</t>
+    <t>8位服务类型(TOS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位总长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3位标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13位片便宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位生存时间(TTL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位首部检验和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位源IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位目的IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位选项(若有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位源端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位目的端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位UDP长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位UDP检验和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP首部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留(6位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位窗口大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位TCP检验和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位紧急指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项(若有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据(若有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位确认号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP首部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位检验和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同类型和代码有不同内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICMP报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48位目的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48位源地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8位长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +216,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,19 +277,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,30 +649,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E12"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -403,12 +799,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -417,14 +890,352 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="4" width="2.125" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="2.125" customWidth="1"/>
+    <col min="8" max="8" width="2.375" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="40.5">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I12"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7">
+        <v>802.3</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:C8"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Network/protocol.xlsx
+++ b/Network/protocol.xlsx
@@ -11,7 +11,7 @@
     <sheet name="UDP首部" sheetId="2" r:id="rId2"/>
     <sheet name="TCP首部" sheetId="3" r:id="rId3"/>
     <sheet name="ICMP报文首部" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="802.3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -323,6 +323,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,20 +350,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -665,20 +665,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -690,17 +690,17 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
@@ -709,74 +709,74 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -812,65 +812,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -909,172 +909,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1104,52 +1104,52 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1187,47 +1187,47 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Network/protocol.xlsx
+++ b/Network/protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="IP首部" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13位片便宜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8位生存时间(TTL)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +189,10 @@
   </si>
   <si>
     <t>8位长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13位片偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -665,20 +668,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -690,93 +693,93 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -812,65 +815,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -893,7 +896,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -909,172 +912,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1098,58 +1101,58 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1168,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1180,54 +1183,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7">
+      <c r="A1" s="8">
         <v>802.3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Network/protocol.xlsx
+++ b/Network/protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IP首部" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TCP首部" sheetId="3" r:id="rId3"/>
     <sheet name="ICMP报文首部" sheetId="4" r:id="rId4"/>
     <sheet name="802.3" sheetId="5" r:id="rId5"/>
+    <sheet name="DNS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>IP首部</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +194,81 @@
   </si>
   <si>
     <t>13位片偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS查询/响应报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权资源记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外资源记录数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回答
+(资源记录数可变)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权
+(资源记录数可变)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息
+(资源记录数可变)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(zero)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +414,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -654,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -668,20 +753,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -693,17 +778,17 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
@@ -712,74 +797,74 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -815,65 +900,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -912,69 +997,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="5" t="s">
@@ -1006,78 +1091,78 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1101,24 +1186,24 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -1127,32 +1212,32 @@
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1172,7 +1257,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1183,16 +1268,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8">
+      <c r="A1" s="10">
         <v>802.3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
@@ -1206,31 +1291,31 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1241,4 +1326,193 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="11" width="3.125" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="G6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>3</v>
+      </c>
+      <c r="N7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" customHeight="1">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" ht="22.5" customHeight="1">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Network/protocol.xlsx
+++ b/Network/protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>IP首部</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,42 @@
   </si>
   <si>
     <t>rcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询名(非固定长度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询类型(16bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询类(16bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名(非固定长度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(16bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类(16bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存时间(32bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源数据长度(16bit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1330,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1347,9 +1383,10 @@
     <col min="11" max="11" width="3.125" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
     <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="20" max="23" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:19">
       <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
@@ -1357,13 +1394,13 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:19">
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:19">
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1410,7 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:19">
       <c r="B4" s="15" t="s">
         <v>46</v>
       </c>
@@ -1383,7 +1420,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:19">
       <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
@@ -1393,7 +1430,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:19">
       <c r="B6" s="13" t="s">
         <v>50</v>
       </c>
@@ -1425,7 +1462,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:19">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1455,7 +1492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:19">
       <c r="B8" s="16" t="s">
         <v>51</v>
       </c>
@@ -1463,13 +1500,13 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:14" ht="17.25" customHeight="1">
+    <row r="9" spans="2:19" ht="17.25" customHeight="1">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:19">
       <c r="B10" s="16" t="s">
         <v>52</v>
       </c>
@@ -1477,13 +1514,13 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:14" ht="15.75" customHeight="1">
+    <row r="11" spans="2:19" ht="15.75" customHeight="1">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:19">
       <c r="B12" s="16" t="s">
         <v>53</v>
       </c>
@@ -1491,14 +1528,84 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:14" ht="22.5" customHeight="1">
+    <row r="13" spans="2:19" ht="22.5" customHeight="1">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
+    <row r="16" spans="2:19" ht="24" customHeight="1">
+      <c r="P16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="16:23">
+      <c r="P17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="19" spans="16:23" ht="23.25" customHeight="1">
+      <c r="T19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+    </row>
+    <row r="20" spans="16:23">
+      <c r="T20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="16:23">
+      <c r="T21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+    </row>
+    <row r="22" spans="16:23">
+      <c r="T22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+    </row>
+    <row r="23" spans="16:23" ht="27.75" customHeight="1">
+      <c r="T23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="B10:E11"/>
